--- a/inst/extdata/PL_D21_Mtb_CFUs.xlsx
+++ b/inst/extdata/PL_D21_Mtb_CFUs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henaolab/Documents/R/bactcountr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D159032-BDFE-1E4B-B757-5026AA2705A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B8D9E-E227-7546-B391-CAE2E439D8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="460" windowWidth="20540" windowHeight="26740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="460" windowWidth="20540" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Counts" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>group</t>
   </si>
   <si>
-    <t>mouse</t>
-  </si>
-  <si>
     <t>organ</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Lung</t>
+  </si>
+  <si>
+    <t>replicate</t>
   </si>
 </sst>
 </file>
@@ -369,8 +369,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -380,25 +380,25 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -406,10 +406,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
@@ -429,16 +429,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3">
         <v>58</v>
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
         <v>81</v>
@@ -475,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>14</v>
@@ -521,13 +521,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -547,13 +547,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>21</v>
@@ -570,16 +570,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <v>29</v>
@@ -593,13 +593,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>83</v>
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
         <v>36</v>
@@ -639,13 +639,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>31</v>
@@ -662,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>38</v>
@@ -685,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
@@ -708,10 +708,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>31</v>
@@ -731,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>54</v>
@@ -754,13 +754,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -777,16 +777,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>22</v>
@@ -800,19 +800,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3">
         <v>177</v>
@@ -823,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>32</v>
@@ -846,10 +846,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -869,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>68</v>
@@ -892,13 +892,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="3">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -915,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>20</v>
@@ -938,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>69</v>
@@ -961,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -984,10 +984,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1007,10 +1007,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
         <v>40</v>
@@ -1030,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1">
         <v>69</v>
@@ -1076,16 +1076,16 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1">
         <v>34</v>
@@ -1099,19 +1099,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1">
         <v>41</v>
@@ -1122,19 +1122,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1">
         <v>191</v>
@@ -1145,19 +1145,19 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1">
         <v>149</v>
@@ -1168,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1">
         <v>68</v>
@@ -1191,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1">
         <v>61</v>
@@ -1214,13 +1214,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1">
         <v>106</v>
@@ -1237,13 +1237,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1">
         <v>42</v>
@@ -1260,16 +1260,16 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1">
         <v>41</v>
@@ -1283,16 +1283,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1">
         <v>60</v>
@@ -1306,16 +1306,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1">
         <v>31</v>
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1">
         <v>85</v>
@@ -1352,16 +1352,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="1">
         <v>60</v>
@@ -1375,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1398,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="1">
         <v>34</v>
@@ -1421,16 +1421,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1">
         <v>25</v>
@@ -1444,19 +1444,19 @@
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="1">
         <v>67</v>
@@ -1467,19 +1467,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1">
         <v>156</v>
@@ -1490,19 +1490,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1">
         <v>181</v>
@@ -1513,13 +1513,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1">
         <v>108</v>
@@ -1536,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1">
         <v>86</v>
@@ -1559,16 +1559,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="1">
         <v>30</v>
@@ -1582,16 +1582,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G53" s="1">
         <v>44</v>
@@ -1605,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G54" s="1">
         <v>24</v>
@@ -1628,16 +1628,16 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G55" s="1">
         <v>47</v>
@@ -1651,16 +1651,16 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56" s="1">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G57" s="1">
         <v>20</v>
@@ -1697,16 +1697,16 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1">
         <v>66</v>
@@ -1720,16 +1720,16 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="1">
         <v>27</v>
@@ -1743,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1">
         <v>68</v>
@@ -1766,16 +1766,16 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="1">
         <v>22</v>
@@ -1793,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6C0549-6EC5-784B-A467-8A1B25483DC4}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
